--- a/adj_netincome_percapita.xlsx
+++ b/adj_netincome_percapita.xlsx
@@ -1,37 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fileVersion appName="SpreadsheetGear 5.1.1.178"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/claudioolivelli/Documents/GitHub/Python lab/Turkey-Italy-salary-vs-inflation/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{54DB58D9-2032-D94C-94F7-398A31B5141B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18075" windowHeight="9900"/>
+    <workbookView xWindow="480" yWindow="500" windowWidth="18080" windowHeight="9900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
     <sheet name="Series - Metadata" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="40001"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="41">
-  <si>
-    <t>Series Code</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Aggregation method</t>
   </si>
   <si>
-    <t>1990 [YR1990]</t>
-  </si>
-  <si>
-    <t>2015 [YR2015]</t>
-  </si>
-  <si>
-    <t>2019 [YR2019]</t>
-  </si>
-  <si>
     <t>License URL</t>
   </si>
   <si>
@@ -41,9 +35,6 @@
     <t>CC BY-4.0</t>
   </si>
   <si>
-    <t>2014 [YR2014]</t>
-  </si>
-  <si>
     <t>World Bank staff estimates based on sources and methods in World Bank's "The Changing Wealth of Nations: Measuring Sustainable Development in the New Millennium" (2011).</t>
   </si>
   <si>
@@ -53,24 +44,9 @@
     <t>Code</t>
   </si>
   <si>
-    <t>2013 [YR2013]</t>
-  </si>
-  <si>
-    <t>..</t>
-  </si>
-  <si>
     <t>https://datacatalog.worldbank.org/public-licenses#cc-by</t>
   </si>
   <si>
-    <t>Italy</t>
-  </si>
-  <si>
-    <t>2012 [YR2012]</t>
-  </si>
-  <si>
-    <t>Country Name</t>
-  </si>
-  <si>
     <t>Topic</t>
   </si>
   <si>
@@ -80,51 +56,24 @@
     <t>Indicator Name</t>
   </si>
   <si>
-    <t>2018 [YR2018]</t>
-  </si>
-  <si>
     <t>TUR</t>
   </si>
   <si>
     <t>Adjusted net national income is GNI minus consumption of fixed capital and natural resources depletion.</t>
   </si>
   <si>
-    <t>2017 [YR2017]</t>
-  </si>
-  <si>
     <t>Country Code</t>
   </si>
   <si>
-    <t>Series Name</t>
-  </si>
-  <si>
-    <t>2016 [YR2016]</t>
-  </si>
-  <si>
-    <t>Data from database: World Development Indicators</t>
-  </si>
-  <si>
-    <t>2000 [YR2000]</t>
-  </si>
-  <si>
-    <t>2011 [YR2011]</t>
-  </si>
-  <si>
     <t>Weighted average</t>
   </si>
   <si>
-    <t>Last Updated: 10/28/2021</t>
-  </si>
-  <si>
     <t>NY.ADJ.NNTY.PC.CD</t>
   </si>
   <si>
     <t>Annual</t>
   </si>
   <si>
-    <t>Turkey</t>
-  </si>
-  <si>
     <t>Adjusted net national income per capita (current US$)</t>
   </si>
   <si>
@@ -135,141 +84,16 @@
   </si>
   <si>
     <t>Source</t>
-  </si>
-  <si>
-    <t>2020 [YR2020]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="17">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Cambria"/>
-      <family val="2"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -303,6 +127,16 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -590,186 +424,239 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:P8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:W7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row>
-      <c t="s">
-        <v>26</v>
-      </c>
-      <c s="2" t="s">
-        <v>0</v>
-      </c>
-      <c t="s">
-        <v>17</v>
-      </c>
-      <c s="2" t="s">
-        <v>25</v>
-      </c>
-      <c t="s">
-        <v>2</v>
-      </c>
-      <c t="s">
-        <v>29</v>
-      </c>
-      <c t="s">
-        <v>30</v>
-      </c>
-      <c t="s">
-        <v>16</v>
-      </c>
-      <c t="s">
-        <v>12</v>
-      </c>
-      <c t="s">
-        <v>8</v>
-      </c>
-      <c t="s">
-        <v>3</v>
-      </c>
-      <c t="s">
-        <v>27</v>
-      </c>
-      <c t="s">
-        <v>24</v>
-      </c>
-      <c t="s">
-        <v>21</v>
-      </c>
-      <c t="s">
-        <v>4</v>
-      </c>
-      <c t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row>
-      <c t="s">
-        <v>36</v>
-      </c>
-      <c s="2" t="s">
-        <v>33</v>
-      </c>
-      <c t="s">
-        <v>35</v>
-      </c>
-      <c s="2" t="s">
-        <v>22</v>
-      </c>
-      <c>
-        <v>2322.7499519903449</v>
-      </c>
-      <c>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1">
+        <v>1998</v>
+      </c>
+      <c r="C1">
+        <v>1999</v>
+      </c>
+      <c r="D1">
+        <v>2000</v>
+      </c>
+      <c r="E1">
+        <v>2001</v>
+      </c>
+      <c r="F1">
+        <v>2002</v>
+      </c>
+      <c r="G1">
+        <v>2003</v>
+      </c>
+      <c r="H1">
+        <v>2004</v>
+      </c>
+      <c r="I1">
+        <v>2005</v>
+      </c>
+      <c r="J1">
+        <v>2006</v>
+      </c>
+      <c r="K1">
+        <v>2007</v>
+      </c>
+      <c r="L1">
+        <v>2008</v>
+      </c>
+      <c r="M1">
+        <v>2009</v>
+      </c>
+      <c r="N1">
+        <v>2010</v>
+      </c>
+      <c r="O1">
+        <v>2011</v>
+      </c>
+      <c r="P1">
+        <v>2012</v>
+      </c>
+      <c r="Q1">
+        <v>2013</v>
+      </c>
+      <c r="R1">
+        <v>2014</v>
+      </c>
+      <c r="S1">
+        <v>2015</v>
+      </c>
+      <c r="T1">
+        <v>2016</v>
+      </c>
+      <c r="U1">
+        <v>2017</v>
+      </c>
+      <c r="V1">
+        <v>2018</v>
+      </c>
+      <c r="W1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2">
+        <v>18943.67958634147</v>
+      </c>
+      <c r="C2">
+        <v>18730.66588135824</v>
+      </c>
+      <c r="D2">
+        <v>17038.985282773356</v>
+      </c>
+      <c r="E2">
+        <v>17378.232032773154</v>
+      </c>
+      <c r="F2">
+        <v>18791.952256640394</v>
+      </c>
+      <c r="G2">
+        <v>23138.18524968758</v>
+      </c>
+      <c r="H2">
+        <v>26385.08137858714</v>
+      </c>
+      <c r="I2">
+        <v>27050.410562488534</v>
+      </c>
+      <c r="J2">
+        <v>28308.550948026794</v>
+      </c>
+      <c r="K2">
+        <v>31792.765631568571</v>
+      </c>
+      <c r="L2">
+        <v>33666.14392893394</v>
+      </c>
+      <c r="M2">
+        <v>30590.756652073134</v>
+      </c>
+      <c r="N2">
+        <v>29580.792474931895</v>
+      </c>
+      <c r="O2">
+        <v>31631.010056875737</v>
+      </c>
+      <c r="P2">
+        <v>28560.670778746564</v>
+      </c>
+      <c r="Q2">
+        <v>28932.663722812922</v>
+      </c>
+      <c r="R2">
+        <v>29020.795532387692</v>
+      </c>
+      <c r="S2">
+        <v>24525.624643395811</v>
+      </c>
+      <c r="T2">
+        <v>25533.519997284071</v>
+      </c>
+      <c r="U2">
+        <v>26863.256691727987</v>
+      </c>
+      <c r="V2">
+        <v>28888.05341187165</v>
+      </c>
+      <c r="W2">
+        <v>27895.074272571681</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>3761.5318630816751</v>
+      </c>
+      <c r="C3">
+        <v>3398.6843154308708</v>
+      </c>
+      <c r="D3">
         <v>3589.2592662830457</v>
       </c>
-      <c>
+      <c r="E3">
+        <v>2510.7907854336231</v>
+      </c>
+      <c r="F3">
+        <v>2954.314999209967</v>
+      </c>
+      <c r="G3">
+        <v>3871.0572011321119</v>
+      </c>
+      <c r="H3">
+        <v>5022.8974020617979</v>
+      </c>
+      <c r="I3">
+        <v>6198.8595743788965</v>
+      </c>
+      <c r="J3">
+        <v>6752.4891814162866</v>
+      </c>
+      <c r="K3">
+        <v>8175.4361166298322</v>
+      </c>
+      <c r="L3">
+        <v>9123.9999963916216</v>
+      </c>
+      <c r="M3">
+        <v>7505.8149411578197</v>
+      </c>
+      <c r="N3">
+        <v>9019.9835944552487</v>
+      </c>
+      <c r="O3">
         <v>9652.1164682105045</v>
       </c>
-      <c>
+      <c r="P3">
         <v>9965.7961961479414</v>
       </c>
-      <c>
+      <c r="Q3">
         <v>10697.224639813441</v>
       </c>
-      <c>
+      <c r="R3">
         <v>10263.853782783255</v>
       </c>
-      <c>
+      <c r="S3">
         <v>9257.8795724041629</v>
       </c>
-      <c>
+      <c r="T3">
         <v>9130.5591173428566</v>
       </c>
-      <c>
+      <c r="U3">
         <v>8834.0986451822082</v>
       </c>
-      <c>
+      <c r="V3">
         <v>7982.4130773376246</v>
       </c>
-      <c>
+      <c r="W3">
         <v>7585.0406854196854</v>
       </c>
-      <c t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row>
-      <c t="s">
-        <v>36</v>
-      </c>
-      <c s="2" t="s">
-        <v>33</v>
-      </c>
-      <c t="s">
-        <v>15</v>
-      </c>
-      <c s="2" t="s">
-        <v>19</v>
-      </c>
-      <c>
-        <v>17611.393868836254</v>
-      </c>
-      <c>
-        <v>17038.985282773356</v>
-      </c>
-      <c>
-        <v>31631.010056875737</v>
-      </c>
-      <c>
-        <v>28560.670778746564</v>
-      </c>
-      <c>
-        <v>28932.663722812922</v>
-      </c>
-      <c>
-        <v>29020.795532387692</v>
-      </c>
-      <c>
-        <v>24525.624643395811</v>
-      </c>
-      <c>
-        <v>25533.519997284071</v>
-      </c>
-      <c>
-        <v>26863.256691727987</v>
-      </c>
-      <c>
-        <v>28888.05341187165</v>
-      </c>
-      <c>
-        <v>27895.074272571681</v>
-      </c>
-      <c t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row>
-      <c r="B4" s="2"/>
-      <c r="D4" s="2"/>
-    </row>
-    <row>
-      <c r="B5" s="2"/>
-      <c r="D5" s="2"/>
-    </row>
-    <row>
-      <c r="B6" s="2"/>
-      <c r="D6" s="2"/>
-    </row>
-    <row>
-      <c t="s">
-        <v>28</v>
-      </c>
-      <c s="2"/>
-      <c r="D7" s="2"/>
-    </row>
-    <row>
-      <c t="s">
-        <v>32</v>
-      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A4" s="2"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A5" s="2"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A6" s="2"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A7" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -777,73 +664,73 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.8125" customWidth="1"/>
-    <col min="2" max="9" width="50.8125" customWidth="1"/>
+    <col min="1" max="1" width="15.83203125" customWidth="1"/>
+    <col min="2" max="9" width="50.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row>
-      <c s="1" t="s">
-        <v>11</v>
-      </c>
-      <c s="1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
-      <c s="1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>20</v>
       </c>
-      <c s="1" t="s">
-        <v>10</v>
-      </c>
-      <c s="1" t="s">
-        <v>39</v>
-      </c>
-      <c s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>18</v>
       </c>
-      <c s="1" t="s">
-        <v>37</v>
-      </c>
-      <c s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>1</v>
       </c>
-      <c s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row>
-      <c s="1" t="s">
-        <v>33</v>
-      </c>
-      <c s="1" t="s">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>7</v>
-      </c>
-      <c s="1" t="s">
-        <v>36</v>
-      </c>
-      <c s="1" t="s">
-        <v>23</v>
-      </c>
-      <c s="1" t="s">
-        <v>9</v>
-      </c>
-      <c s="1" t="s">
-        <v>38</v>
-      </c>
-      <c s="1" t="s">
-        <v>34</v>
-      </c>
-      <c s="1" t="s">
-        <v>31</v>
-      </c>
-      <c s="1" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
